--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lta-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lta-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ltbr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H2">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I2">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J2">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.30399166666667</v>
+        <v>12.87437866666667</v>
       </c>
       <c r="N2">
-        <v>33.911975</v>
+        <v>38.623136</v>
       </c>
       <c r="O2">
-        <v>0.2607347834842907</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="P2">
-        <v>0.2607347834842906</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="Q2">
-        <v>2.908675311716666</v>
+        <v>1.337377581514667</v>
       </c>
       <c r="R2">
-        <v>26.17807780545</v>
+        <v>12.036398233632</v>
       </c>
       <c r="S2">
-        <v>0.2081390538986548</v>
+        <v>0.05180311279463455</v>
       </c>
       <c r="T2">
-        <v>0.2081390538986547</v>
+        <v>0.05180311279463455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H3">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I3">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J3">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>53.11316100000001</v>
       </c>
       <c r="O3">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="P3">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="Q3">
-        <v>4.555586636518</v>
+        <v>1.839114017173</v>
       </c>
       <c r="R3">
-        <v>41.00027972866201</v>
+        <v>16.552026154557</v>
       </c>
       <c r="S3">
-        <v>0.32598877181606</v>
+        <v>0.07123779566119605</v>
       </c>
       <c r="T3">
-        <v>0.3259887718160599</v>
+        <v>0.07123779566119605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H4">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I4">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J4">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.771252666666666</v>
+        <v>8.077278666666666</v>
       </c>
       <c r="N4">
-        <v>17.313758</v>
+        <v>24.231836</v>
       </c>
       <c r="O4">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="P4">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="Q4">
-        <v>1.485024108670667</v>
+        <v>0.8390596306146666</v>
       </c>
       <c r="R4">
-        <v>13.365216978036</v>
+        <v>7.551536675532001</v>
       </c>
       <c r="S4">
-        <v>0.1062653888353676</v>
+        <v>0.03250084440396259</v>
       </c>
       <c r="T4">
-        <v>0.1062653888353676</v>
+        <v>0.03250084440396259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H5">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I5">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J5">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.574736333333334</v>
+        <v>8.541146333333332</v>
       </c>
       <c r="N5">
-        <v>25.724209</v>
+        <v>25.623439</v>
       </c>
       <c r="O5">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="P5">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="Q5">
-        <v>2.206399704875333</v>
+        <v>0.8872457399603332</v>
       </c>
       <c r="R5">
-        <v>19.857597343878</v>
+        <v>7.985211659642999</v>
       </c>
       <c r="S5">
-        <v>0.1578856001029507</v>
+        <v>0.03436732586145873</v>
       </c>
       <c r="T5">
-        <v>0.1578856001029506</v>
+        <v>0.03436732586145873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H6">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I6">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J6">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.30399166666667</v>
+        <v>12.87437866666667</v>
       </c>
       <c r="N6">
-        <v>33.911975</v>
+        <v>38.623136</v>
       </c>
       <c r="O6">
-        <v>0.2607347834842907</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="P6">
-        <v>0.2607347834842906</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="Q6">
-        <v>0.73500814615</v>
+        <v>3.312757872234667</v>
       </c>
       <c r="R6">
-        <v>6.615073315349999</v>
+        <v>29.814820850112</v>
       </c>
       <c r="S6">
-        <v>0.05259572958563595</v>
+        <v>0.1283191613862147</v>
       </c>
       <c r="T6">
-        <v>0.05259572958563594</v>
+        <v>0.1283191613862147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H7">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I7">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J7">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>53.11316100000001</v>
       </c>
       <c r="O7">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="P7">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="Q7">
-        <v>1.151174651514</v>
+        <v>4.555586636518</v>
       </c>
       <c r="R7">
-        <v>10.360571863626</v>
+        <v>41.00027972866201</v>
       </c>
       <c r="S7">
-        <v>0.08237578181142047</v>
+        <v>0.1764599404380577</v>
       </c>
       <c r="T7">
-        <v>0.08237578181142047</v>
+        <v>0.1764599404380577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H8">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I8">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J8">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.771252666666666</v>
+        <v>8.077278666666666</v>
       </c>
       <c r="N8">
-        <v>17.313758</v>
+        <v>24.231836</v>
       </c>
       <c r="O8">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="P8">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="Q8">
-        <v>0.375258390892</v>
+        <v>2.078396882834666</v>
       </c>
       <c r="R8">
-        <v>3.377325518028</v>
+        <v>18.705571945512</v>
       </c>
       <c r="S8">
-        <v>0.02685274844296568</v>
+        <v>0.08050638027860521</v>
       </c>
       <c r="T8">
-        <v>0.02685274844296568</v>
+        <v>0.0805063802786052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H9">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I9">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J9">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.574736333333334</v>
+        <v>8.541146333333332</v>
       </c>
       <c r="N9">
-        <v>25.724209</v>
+        <v>25.623439</v>
       </c>
       <c r="O9">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="P9">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="Q9">
-        <v>0.557546505866</v>
+        <v>2.197756527615333</v>
       </c>
       <c r="R9">
-        <v>5.017918552794</v>
+        <v>19.779808748538</v>
       </c>
       <c r="S9">
-        <v>0.03989692550694504</v>
+        <v>0.08512975757097578</v>
       </c>
       <c r="T9">
-        <v>0.03989692550694504</v>
+        <v>0.08512975757097577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.557401</v>
+      </c>
+      <c r="I10">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J10">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.87437866666667</v>
+      </c>
+      <c r="N10">
+        <v>38.623136</v>
+      </c>
+      <c r="O10">
+        <v>0.272778495601419</v>
+      </c>
+      <c r="P10">
+        <v>0.272778495601419</v>
+      </c>
+      <c r="Q10">
+        <v>2.392063847726222</v>
+      </c>
+      <c r="R10">
+        <v>21.528574629536</v>
+      </c>
+      <c r="S10">
+        <v>0.09265622142056974</v>
+      </c>
+      <c r="T10">
+        <v>0.09265622142056974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.557401</v>
+      </c>
+      <c r="I11">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J11">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.704387</v>
+      </c>
+      <c r="N11">
+        <v>53.11316100000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3751152716914535</v>
+      </c>
+      <c r="P11">
+        <v>0.3751152716914535</v>
+      </c>
+      <c r="Q11">
+        <v>3.289481006062334</v>
+      </c>
+      <c r="R11">
+        <v>29.605329054561</v>
+      </c>
+      <c r="S11">
+        <v>0.1274175355921997</v>
+      </c>
+      <c r="T11">
+        <v>0.1274175355921997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.557401</v>
+      </c>
+      <c r="I12">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J12">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.077278666666666</v>
+      </c>
+      <c r="N12">
+        <v>24.231836</v>
+      </c>
+      <c r="O12">
+        <v>0.1711389714636405</v>
+      </c>
+      <c r="P12">
+        <v>0.1711389714636405</v>
+      </c>
+      <c r="Q12">
+        <v>1.500761068692889</v>
+      </c>
+      <c r="R12">
+        <v>13.506849618236</v>
+      </c>
+      <c r="S12">
+        <v>0.0581317467810727</v>
+      </c>
+      <c r="T12">
+        <v>0.0581317467810727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.557401</v>
+      </c>
+      <c r="I13">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J13">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.541146333333332</v>
+      </c>
+      <c r="N13">
+        <v>25.623439</v>
+      </c>
+      <c r="O13">
+        <v>0.180967261243487</v>
+      </c>
+      <c r="P13">
+        <v>0.180967261243487</v>
+      </c>
+      <c r="Q13">
+        <v>1.586947835782111</v>
+      </c>
+      <c r="R13">
+        <v>14.282530522039</v>
+      </c>
+      <c r="S13">
+        <v>0.06147017781105248</v>
+      </c>
+      <c r="T13">
+        <v>0.06147017781105247</v>
       </c>
     </row>
   </sheetData>
